--- a/data/TestLocation/input_data/hydro_run_of_river.xlsx
+++ b/data/TestLocation/input_data/hydro_run_of_river.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b0e526faaa1b23/Dokumente/Alles zum Studium/Master/Masterarbeit/Leelo/data/TestLocation/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6D64201-4E26-47F7-A8AE-9610DDA3A3C3}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FC153FD-6D79-43A8-BEC0-F671F043F1D5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="-16660" windowWidth="20530" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>MW</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>&lt;- original values as summs of individual power plants in each region… now rounded up</t>
+  </si>
+  <si>
+    <t>currently unused</t>
   </si>
 </sst>
 </file>
@@ -95,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +152,14 @@
     <font>
       <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -214,7 +225,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -248,6 +259,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Akzent1" xfId="2" builtinId="29"/>
@@ -533,7 +545,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,34 +691,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C10" s="1" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C12" s="2">
-        <v>93.15</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
-        <v>257.01400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C14" s="2">
-        <v>25.6</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>93.15</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="6"/>
       <c r="G14" s="8"/>
@@ -722,11 +731,10 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6"/>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
+        <v>257.01400000000001</v>
+      </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
       <c r="G15" s="10"/>
@@ -742,7 +750,10 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
+        <v>25.6</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6"/>
@@ -759,7 +770,10 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6"/>
@@ -776,7 +790,7 @@
       <c r="Q17" s="13"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D18" s="6"/>
       <c r="E18" s="4"/>
       <c r="F18" s="6"/>
@@ -793,7 +807,7 @@
       <c r="Q18" s="13"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D19" s="6"/>
       <c r="E19" s="4"/>
       <c r="F19" s="6"/>
@@ -810,7 +824,7 @@
       <c r="Q19" s="13"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D20" s="6"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6"/>
@@ -827,7 +841,7 @@
       <c r="Q20" s="13"/>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
